--- a/biology/Zoologie/Byctiscus_populi/Byctiscus_populi.xlsx
+++ b/biology/Zoologie/Byctiscus_populi/Byctiscus_populi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Byctiscus populi parfois appelé le cigarier du peuplier, est une espèce d'insectes coléoptères de la famille des Rhynchitidae (ou des Attelabidae selon les classifications). Son nom vernaculaire anglais : « Aspen Leaf-rolling Weevil ».
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps long de 4 à 5,5 mm dont le dessus, d'un aspect métallique brillant, varie du vert au rouge cuivreux ; le dessous, les pattes, le rostre sont bleu-violet à noirs. Le mâle possède à l'avant du pronotum deux petites cornes à la fonction inconnue.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, en Europe, de l'Espagne à la Russie, rare dans les îles Britanniques ; en Asie, Moyen-Orient, Asie centrale, Sibérie, Mongolie, nord de la Chine.
 </t>
@@ -573,12 +589,14 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle pond des œufs blancs (peu nombreux : 1 à 4)[1] dans des feuilles de peupliers (tremble, Populus tremula et peuplier blanc, Populus alba) qu'elle a préalablement roulées en forme de mince cigare au prix d'un long travail avec parfois l'aide d'un mâle. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle pond des œufs blancs (peu nombreux : 1 à 4) dans des feuilles de peupliers (tremble, Populus tremula et peuplier blanc, Populus alba) qu'elle a préalablement roulées en forme de mince cigare au prix d'un long travail avec parfois l'aide d'un mâle. 
 Les larves se développent dans les « cigares » tombés sur le sol pendant 15 jours environ. 
 La nymphose a ensuite lieu dans le sol. 
-Les adultes émergent de mai à octobre[2].
+Les adultes émergent de mai à octobre.
 </t>
         </is>
       </c>
